--- a/src/main/java/config/dataFile.xlsx
+++ b/src/main/java/config/dataFile.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:H13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -61,15 +60,9 @@
     <t>Slip No.</t>
   </si>
   <si>
-    <t>New HP Printer Order Model HP LaserJet Pro M476DW MFP</t>
-  </si>
-  <si>
     <t>Column Name</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>24/7 Couriers</t>
   </si>
   <si>
@@ -98,12 +91,82 @@
   </si>
   <si>
     <t>TC003_Invoice_To_Payment</t>
+  </si>
+  <si>
+    <t>Quote Order Number</t>
+  </si>
+  <si>
+    <t>Quote Status</t>
+  </si>
+  <si>
+    <t>DRAFT</t>
+  </si>
+  <si>
+    <t>Sales Order Number</t>
+  </si>
+  <si>
+    <t>SO Status</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>ETCC UFT licence</t>
+  </si>
+  <si>
+    <t>2021-77 — Test quote</t>
+  </si>
+  <si>
+    <t>2021-52 — Test Sales Order</t>
+  </si>
+  <si>
+    <t>shipping Number</t>
+  </si>
+  <si>
+    <t>2021-16 — Test Shipping</t>
+  </si>
+  <si>
+    <t>shipping Status</t>
+  </si>
+  <si>
+    <t>SHIPPED</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Invoice Status</t>
+  </si>
+  <si>
+    <t>Partially Shipped &amp; Invoiced</t>
+  </si>
+  <si>
+    <t>etcc</t>
+  </si>
+  <si>
+    <t>5 UFT licence for ETCC</t>
+  </si>
+  <si>
+    <t>2021-64 — Test Invoice</t>
+  </si>
+  <si>
+    <t>DUE — Shipped</t>
+  </si>
+  <si>
+    <t>2021-78 — ETCC UFT licence quote</t>
+  </si>
+  <si>
+    <t>2021-53 — ETCC UFT licence Sales Order</t>
+  </si>
+  <si>
+    <t>2021-45 — ETCC UFT licence Shipping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -442,19 +505,19 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="11" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="7" max="11" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -495,27 +558,27 @@
         <v>3</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2"/>
       <c r="L2" s="1" t="s">
@@ -524,54 +587,54 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -582,45 +645,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -628,6 +691,62 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/config/dataFile.xlsx
+++ b/src/main/java/config/dataFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13320" windowHeight="4320"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13320" windowHeight="4320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -114,18 +114,9 @@
     <t>ETCC UFT licence</t>
   </si>
   <si>
-    <t>2021-77 — Test quote</t>
-  </si>
-  <si>
-    <t>2021-52 — Test Sales Order</t>
-  </si>
-  <si>
     <t>shipping Number</t>
   </si>
   <si>
-    <t>2021-16 — Test Shipping</t>
-  </si>
-  <si>
     <t>shipping Status</t>
   </si>
   <si>
@@ -147,19 +138,42 @@
     <t>5 UFT licence for ETCC</t>
   </si>
   <si>
-    <t>2021-64 — Test Invoice</t>
-  </si>
-  <si>
-    <t>DUE — Shipped</t>
-  </si>
-  <si>
-    <t>2021-78 — ETCC UFT licence quote</t>
-  </si>
-  <si>
-    <t>2021-53 — ETCC UFT licence Sales Order</t>
-  </si>
-  <si>
-    <t>2021-45 — ETCC UFT licence Shipping</t>
+    <t>2021-89 — ETCC UFT licence quote</t>
+  </si>
+  <si>
+    <t>2021-62 — ETCC UFT licence Sales Order</t>
+  </si>
+  <si>
+    <t>2021-56 — ETCC UFT licence Shipping</t>
+  </si>
+  <si>
+    <t>2021-76
+ETCC UFT licence Invoice</t>
+  </si>
+  <si>
+    <t>2021-90 — ETCC UFT licence quote</t>
+  </si>
+  <si>
+    <t>2021-63 — ETCC UFT licence Sales Order</t>
+  </si>
+  <si>
+    <t>2021-57 — ETCC UFT licence Shipping</t>
+  </si>
+  <si>
+    <t>2021-77
+ETCC UFT licence Invoice</t>
+  </si>
+  <si>
+    <t>Payment  Number</t>
+  </si>
+  <si>
+    <t>PID-69</t>
+  </si>
+  <si>
+    <t>Payment  Status</t>
+  </si>
+  <si>
+    <t>PAID — Partially Shipped</t>
   </si>
 </sst>
 </file>
@@ -504,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -575,10 +589,10 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2"/>
       <c r="L2" s="1" t="s">
@@ -599,7 +613,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -625,7 +639,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -647,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -661,7 +675,7 @@
     <col min="6" max="6" customWidth="true" width="20.42578125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.0" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
     <col min="11" max="12" customWidth="true" width="26.42578125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
@@ -687,8 +701,12 @@
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
@@ -697,13 +715,19 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -714,10 +738,16 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -725,13 +755,13 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -742,10 +772,10 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
